--- a/logs/rooseBERT_large_scr.xlsx
+++ b/logs/rooseBERT_large_scr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/DebateBERT/logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D945A7-ABB7-8B4A-B551-9686C7F92C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC138935-327E-574E-9503-85E53D5196F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="ner" sheetId="2" r:id="rId3"/>
     <sheet name="sentiment analysis" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$C$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$C$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'relation classification'!$C$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sentiment analysis'!$C$1:$C$55</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -626,11 +632,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -686,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -762,7 +769,7 @@
         <v>0.57658525666291971</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -876,7 +883,7 @@
         <v>0.57613757463394699</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -952,7 +959,7 @@
         <v>0.57647820226468716</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>0.57223008909845596</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>0.56031703588600024</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1142,7 +1149,7 @@
         <v>0.55990333533456771</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>0.57100869573680191</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>0.57350987576823698</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1370,7 +1377,7 @@
         <v>0.57756821068305575</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>0.57223495520746659</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>0.55315295316607049</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>0.57442957037123543</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>0.55584705187905814</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>0.5556149759599619</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>0.56159345344103007</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>0.56722286292657531</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>0.55319835932415451</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>0.55158896327650841</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>0.57003060782567649</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2168,7 +2175,7 @@
         <v>0.56584088796757226</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -2206,7 +2213,7 @@
         <v>0.55349097678736292</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>0.55441928046374822</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2282,7 +2289,7 @@
         <v>0.55191689664044885</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -2320,7 +2327,7 @@
         <v>0.54845089324003204</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>0.56470221845909796</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2593,7 @@
         <v>0.56246380831423382</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -2739,6 +2746,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="cased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
@@ -2748,11 +2762,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2808,7 +2823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -2846,7 +2861,7 @@
         <v>0.79067032536260295</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2884,7 +2899,7 @@
         <v>0.77891023128185022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2998,7 +3013,7 @@
         <v>0.77440219521756171</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -3074,7 +3089,7 @@
         <v>0.78283026264210109</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -3112,7 +3127,7 @@
         <v>0.78224225793806346</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3302,7 +3317,7 @@
         <v>0.77812622500980011</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3378,7 +3393,7 @@
         <v>0.7736181889455116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -3492,7 +3507,7 @@
         <v>0.77577420619364956</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3530,7 +3545,7 @@
         <v>0.77479419835358687</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -3568,7 +3583,7 @@
         <v>0.76695413563308501</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3644,7 +3659,7 @@
         <v>0.75793806350450799</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -3682,7 +3697,7 @@
         <v>0.75539004312034497</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>0.76538612308898468</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -3758,7 +3773,7 @@
         <v>0.75166601332810667</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -3948,7 +3963,7 @@
         <v>0.75754606036848293</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,7 +4457,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -4480,7 +4495,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -4518,7 +4533,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -4594,7 +4609,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -4632,7 +4647,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -4670,7 +4685,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4708,7 +4723,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -4746,7 +4761,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4784,7 +4799,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -4822,7 +4837,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -4861,6 +4876,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="cased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
@@ -4870,11 +4892,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4968,7 +4991,7 @@
         <v>0.85475494000358188</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -5082,7 +5105,7 @@
         <v>0.84794937615664734</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -5120,7 +5143,7 @@
         <v>0.85178965699536646</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -5196,7 +5219,7 @@
         <v>0.84771058444271985</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -5272,7 +5295,7 @@
         <v>0.84341233359202439</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5348,7 +5371,7 @@
         <v>0.84063637991761686</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -5424,7 +5447,7 @@
         <v>0.83532326428272941</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -5462,7 +5485,7 @@
         <v>0.83456168174891932</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -5576,7 +5599,7 @@
         <v>0.83305474300041793</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -5652,7 +5675,7 @@
         <v>0.83162199271685278</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -5728,7 +5751,7 @@
         <v>0.8309056175750702</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -5880,7 +5903,7 @@
         <v>0.81729448988120112</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -5994,7 +6017,7 @@
         <v>0.80866813921556924</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -6070,7 +6093,7 @@
         <v>0.80556384693451133</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -6108,7 +6131,7 @@
         <v>0.81469042510184408</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -6184,7 +6207,7 @@
         <v>0.79983284580025071</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -6260,7 +6283,7 @@
         <v>0.79162438063399199</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -6298,7 +6321,7 @@
         <v>0.79195820505644188</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -6374,7 +6397,7 @@
         <v>0.76547668795892787</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -6488,7 +6511,7 @@
         <v>0.75004477344636145</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -6526,7 +6549,7 @@
         <v>0.74487669869701778</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -6602,7 +6625,7 @@
         <v>0.74073189660318783</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -6640,7 +6663,7 @@
         <v>0.73175358397860502</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -6716,7 +6739,7 @@
         <v>0.68679481821980781</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -6830,7 +6853,7 @@
         <v>0.65181183212942506</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -6868,7 +6891,7 @@
         <v>0.64315701091519728</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -6906,7 +6929,7 @@
         <v>0.63535155642628349</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
@@ -6983,6 +7006,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="cased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
@@ -6992,11 +7022,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7052,7 +7083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -7090,7 +7121,7 @@
         <v>0.69814704124327553</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -7128,7 +7159,7 @@
         <v>0.69127316198445909</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -7242,7 +7273,7 @@
         <v>0.6963538553496712</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -7318,7 +7349,7 @@
         <v>0.68977884040645543</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -7394,7 +7425,7 @@
         <v>0.68738792588164976</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -7470,7 +7501,7 @@
         <v>0.69127316198445909</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -7584,7 +7615,7 @@
         <v>0.69097429766885832</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7736,7 +7767,7 @@
         <v>0.67005379557680811</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -7850,7 +7881,7 @@
         <v>0.67901972504482966</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -7926,7 +7957,7 @@
         <v>0.67423789599521822</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -7964,7 +7995,7 @@
         <v>0.67931858936043032</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -8002,7 +8033,7 @@
         <v>0.66557083084279733</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -8040,7 +8071,7 @@
         <v>0.67812313209802755</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -8420,7 +8451,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -8458,7 +8489,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -8496,7 +8527,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -8534,7 +8565,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -8572,7 +8603,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -8610,7 +8641,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -8648,7 +8679,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -8686,7 +8717,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -8724,7 +8755,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -8762,7 +8793,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -8800,7 +8831,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -9028,7 +9059,7 @@
         <v>0.67513448894202033</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -9066,7 +9097,7 @@
         <v>0.65780035863717867</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
@@ -9105,6 +9136,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="cased"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
